--- a/disney_movie/clean/disney.xlsx
+++ b/disney_movie/clean/disney.xlsx
@@ -5423,7 +5423,7 @@
     <t>genre</t>
   </si>
   <si>
-    <t>MPAA_rating</t>
+    <t>mpaa_rating</t>
   </si>
   <si>
     <t>total_gross</t>
@@ -7040,25 +7040,25 @@
     <t>PG-13</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Studio Entertainment</t>
-  </si>
-  <si>
-    <t>Disney Consumer Products</t>
-  </si>
-  <si>
-    <t>Disney Interactive</t>
-  </si>
-  <si>
-    <t>Walt Disney Parks and Resorts</t>
-  </si>
-  <si>
-    <t>Disney Media Networks</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>studio_entertainment</t>
+  </si>
+  <si>
+    <t>disney_consumer_products</t>
+  </si>
+  <si>
+    <t>disney_interactive</t>
+  </si>
+  <si>
+    <t>walt_disney_parks_and_resorts</t>
+  </si>
+  <si>
+    <t>disney_media_networks</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
